--- a/biology/Mycologie/Karel_Cejp/Karel_Cejp.xlsx
+++ b/biology/Mycologie/Karel_Cejp/Karel_Cejp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karel Cejp est un botaniste et un mycologue tchécoslovaque, né le 22 février 1900 à Rokycany et mort 22 septembre 1979.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Karel et Barbora Cejp. Il s’intéresse très tôt à la botanique, notamment grâce à Bohuslav Horak, qui fut un de ses professeurs d’école. Il fait ses études à l'institut de botanique de l’université Charles de Prague. Il devient maître de conférences en 1933, puis professeur en 1948 dans la même université. Son domaine d’étude est la morphologie des plantes ainsi que les champignons. Cejp devient également rédacteur en chef de la revue Česká mykologie et est également l’un des rédacteurs du projet « Flora ČSR ». Cejp se marie le 12 septembre 1951 avec Darija Ottisová.
 Les genres Cejpia et Cejpomyces (maintenant Thanatephorus) ainsi que la famille des Cejpomycetaceae ont été nommés en son honneur.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Květena strašických Brd (Rokycany, Městské museum, 1924).
 Příspěvek k srovnávací morfologii dimerických květů (Praha, Přírodovědecká fakulta, F. Řivnáč, 1924).
